--- a/documents/Tracker.xlsx
+++ b/documents/Tracker.xlsx
@@ -277,6 +277,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -290,13 +293,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,8 +634,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12">
+    <row r="2" spans="1:7" hidden="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -658,22 +658,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" hidden="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="4">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -837,16 +837,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -869,13 +869,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" hidden="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -970,29 +970,29 @@
       </c>
     </row>
     <row r="19" spans="1:7" hidden="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" hidden="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="10" t="s">
@@ -1000,22 +1000,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" hidden="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" hidden="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="4">
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>17</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1087,13 +1087,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="4">
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" hidden="1">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>21</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -1188,13 +1188,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G31">
@@ -1203,32 +1203,19 @@
         <filter val="High"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="In Progress"/>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="49">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -1236,23 +1223,42 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="G20:G22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
